--- a/packages/ld46/docs/cards/Actions.xlsx
+++ b/packages/ld46/docs/cards/Actions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\jou\packages\ld46\docs\cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFEC2C5-4725-4B04-BEAC-009125AC7D0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09841F0-D049-4396-9625-C87884766D0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,9 +92,6 @@
     <t>+2</t>
   </si>
   <si>
-    <t>+1</t>
-  </si>
-  <si>
     <t>The Gladiator pulls back their arm and lets fly</t>
   </si>
   <si>
@@ -169,10 +166,6 @@
     <t>The fighter thumps their chest and yells at the crowd. The crowd responds, cheering loudly.</t>
   </si>
   <si>
-    <t>+5 Excitement for the player
-+1 CP if targeting player</t>
-  </si>
-  <si>
     <t>Fatality</t>
   </si>
   <si>
@@ -212,6 +205,12 @@
   <si>
     <t>Creature is slowed until dead
 No effect against players</t>
+  </si>
+  <si>
+    <t>+4</t>
+  </si>
+  <si>
+    <t>+5 Excitement for the player</t>
   </si>
 </sst>
 </file>
@@ -543,7 +542,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
@@ -597,7 +596,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -618,10 +617,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -629,7 +628,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -644,16 +643,16 @@
         <v>17</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -661,10 +660,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -673,19 +672,19 @@
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -693,10 +692,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
@@ -708,16 +707,16 @@
         <v>13</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -728,7 +727,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
@@ -746,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -757,10 +756,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
@@ -769,30 +768,30 @@
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
       <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
@@ -804,16 +803,16 @@
         <v>13</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8">
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -821,10 +820,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
@@ -833,19 +832,19 @@
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -853,10 +852,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
@@ -868,16 +867,16 @@
         <v>13</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -885,10 +884,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
@@ -900,16 +899,16 @@
         <v>15</v>
       </c>
       <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
         <v>1</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
       <c r="I11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/packages/ld46/docs/cards/Actions.xlsx
+++ b/packages/ld46/docs/cards/Actions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\jou\packages\ld46\docs\cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09841F0-D049-4396-9625-C87884766D0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF77235-5168-40AF-9D0F-686E6FBCE103}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7680" yWindow="1215" windowWidth="19155" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
   <si>
     <t>action_template.png</t>
   </si>
@@ -211,6 +211,19 @@
   </si>
   <si>
     <t>+5 Excitement for the player</t>
+  </si>
+  <si>
+    <t>Sacrifice</t>
+  </si>
+  <si>
+    <t>Sacrifice Self</t>
+  </si>
+  <si>
+    <t>The gladiator throws themselves in front of the opponent, saving their comrades.</t>
+  </si>
+  <si>
+    <t>The fighter is discarded
+Targeted creature cannot attack</t>
   </si>
 </sst>
 </file>
@@ -536,13 +549,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,6 +924,38 @@
         <v>54</v>
       </c>
     </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
